--- a/occupations/ratings_hu.xlsx
+++ b/occupations/ratings_hu.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -298,6 +298,9 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">PZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -394,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BF21" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:BF21"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BF22" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:BF22"/>
   <x:tableColumns count="58">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -4481,11 +4484,185 @@
         <x:v>64</x:v>
       </x:c>
     </x:row>
+    <x:row r="22" hidden="0">
+      <x:c r="A22">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="2">
+        <x:v>45857.9228819444</x:v>
+      </x:c>
+      <x:c r="C22" s="2">
+        <x:v>45857.9249768518</x:v>
+      </x:c>
+      <x:c r="D22" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E22" s="10" t="s"/>
+      <x:c r="F22" s="10" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G22" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H22" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="J22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="K22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="L22" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="M22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="N22" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="P22" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="R22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="T22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="U22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="V22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="W22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="X22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="Y22" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="Z22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AA22" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AB22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AC22" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AD22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AE22" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AF22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AG22" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AH22" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AI22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AJ22" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AK22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AL22" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AN22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AO22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AP22" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AQ22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AR22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AS22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AT22" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="AU22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AV22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AW22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AX22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AY22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="AZ22" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BA22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BB22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="BC22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="BD22" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BE22" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="BF22" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="Rb94daf415f0243d4"/>
+    <x:tablePart r:id="R6b11a179090e495e"/>
   </x:tableParts>
 </x:worksheet>
 </file>